--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="simulations.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Simulation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Simulation1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,15 +424,501 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>96</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="simulations.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="simulation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="simulation1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="simulation2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +488,333 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="simulation1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="simulation2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,206 +413,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Génération</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nombre d'individus départ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Nombre d'individus en vie</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Nombre de naissances</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Nombre de morts</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Moyenne taille individus</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Moyenne vue individus</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Moyenne vitesse individus</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Nombre de morts total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -681,19 +479,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>17.6</v>
+        <v>17.1</v>
       </c>
       <c r="G2" t="n">
-        <v>71.8</v>
+        <v>62.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
@@ -707,25 +505,25 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="G3" t="n">
-        <v>67.5</v>
+        <v>63.1</v>
       </c>
       <c r="H3" t="n">
         <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -736,25 +534,25 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>62.2</v>
+        <v>62.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -768,22 +566,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>65.40000000000001</v>
+        <v>48.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -800,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -812,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="simulation1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,9 +50,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -124,6 +124,203 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Nombre d'individus dans le temps</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'simulation'!$A$9</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -135,44 +332,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,14 +396,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,6 +431,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -244,176 +443,152 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +651,25 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>17.1</v>
+        <v>17.8</v>
       </c>
       <c r="G2" t="n">
-        <v>62.8</v>
+        <v>66.5</v>
       </c>
       <c r="H2" t="n">
         <v>1.8</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +680,22 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="G3" t="n">
-        <v>63.1</v>
+        <v>63.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
@@ -534,25 +709,25 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>17.2</v>
       </c>
       <c r="G4" t="n">
-        <v>62.6</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -563,25 +738,25 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="G5" t="n">
-        <v>48.2</v>
+        <v>56.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="I5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -592,25 +767,904 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>70.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>49</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>57</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>66</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>80</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>101</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>120</v>
+      </c>
+      <c r="D19" t="n">
+        <v>49</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>150</v>
+      </c>
+      <c r="D20" t="n">
+        <v>59</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>64</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>197</v>
+      </c>
+      <c r="D21" t="n">
+        <v>73</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>249</v>
+      </c>
+      <c r="D22" t="n">
+        <v>94</v>
+      </c>
+      <c r="E22" t="n">
+        <v>42</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>307</v>
+      </c>
+      <c r="D23" t="n">
+        <v>118</v>
+      </c>
+      <c r="E23" t="n">
+        <v>60</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>391</v>
+      </c>
+      <c r="D24" t="n">
+        <v>157</v>
+      </c>
+      <c r="E24" t="n">
+        <v>73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>495</v>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>623</v>
+      </c>
+      <c r="D26" t="n">
+        <v>247</v>
+      </c>
+      <c r="E26" t="n">
+        <v>119</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,93 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="simulation1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="simulation2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -448,4 +450,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -9,6 +9,7 @@
     <sheet name="simulation" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="simulation1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="simulation2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="simulation3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -582,4 +583,70 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>